--- a/My_PROYECT_FING_G1/ELICITACION/1.2 Historial de usuario/Historias de usuario grupo G6 V2.xlsx
+++ b/My_PROYECT_FING_G1/ELICITACION/1.2 Historial de usuario/Historias de usuario grupo G6 V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA41E797-EC3C-46D6-8100-7BC27BE021AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC22BBD-D45D-4FA3-A219-5986CDE5B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>El administrador y empleados puedan utilizar las funcionalidades.</t>
+  </si>
+  <si>
+    <t>REQ004</t>
+  </si>
+  <si>
+    <t>Eliminar o editar cuentas de usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder editar o eliminar las cuentas creadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de despido o ascenso </t>
+  </si>
+  <si>
+    <t>Creando un sistema que permita elimnar y editar las cuentas registradas</t>
+  </si>
+  <si>
+    <t>Henry Suin</t>
+  </si>
+  <si>
+    <t>Comprobando que los datos de las cuentas fueron modificados o que la cuenta ya no aparezca en el registro</t>
+  </si>
+  <si>
+    <t>Administracion de cuentas</t>
   </si>
 </sst>
 </file>
@@ -806,17 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -844,23 +857,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,6 +865,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,7 +1233,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1451,24 +1475,48 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="30">
+        <v>2</v>
+      </c>
       <c r="J9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="K9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="30" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
@@ -7455,23 +7503,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
@@ -7511,15 +7559,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -7534,17 +7582,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="66" t="str">
+      <c r="E10" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,5,0)</f>
         <v>Leandro Rubio</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="66" t="str">
+      <c r="H10" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="17"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -7576,15 +7624,15 @@
         <v>26</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -7600,17 +7648,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="66" t="str">
+      <c r="E13" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="66" t="str">
+      <c r="H13" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,7,0)</f>
         <v>Gerald Astudillo</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -7641,65 +7689,65 @@
       <c r="C15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="53" t="str">
+      <c r="D15" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,3,0)</f>
         <v>El administrador y empleados puedan utilizar las funcionalidades.</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="14"/>
       <c r="G15" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="53" t="str">
+      <c r="H15" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,4,0)</f>
         <v>Ayudar en la gestión y control de mercadería</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="14"/>
       <c r="L15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="53" t="str">
+      <c r="M15" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,6,0)</f>
         <v xml:space="preserve">Mediante la creación de un login que registre a nuevos usuarios </v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="14"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="52"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="14"/>
       <c r="L16" s="44"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="14"/>
       <c r="G17" s="45"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="49"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="14"/>
       <c r="L17" s="45"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7721,41 +7769,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="71" t="str">
+      <c r="D19" s="65"/>
+      <c r="E19" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,14,0)</f>
         <v>Registro usuarios nuevos</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="73"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7777,63 +7825,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="53" t="str">
+      <c r="D22" s="65"/>
+      <c r="E22" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,12,0)</f>
         <v>Usuario registrado exitosamente</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="67" t="str">
+      <c r="K22" s="65"/>
+      <c r="L22" s="73" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,13,0)</f>
         <v>-</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="47"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="52"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="49"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="67"/>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8850,11 +8898,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8871,6 +8914,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
